--- a/config_3.23/task_server.xlsx
+++ b/config_3.23/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="449">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1633,10 +1633,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ocean_explore_week_task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1774,6 +1770,183 @@
   <si>
     <t>buyu_3d_spend</t>
   </si>
+  <si>
+    <t>消消乐闯关层数任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>andom</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_tower_week_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>task_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iaoxiaole_tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_week_children_task</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,50,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1836,7 +2009,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1903,6 +2076,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1943,7 +2122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2147,6 +2326,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2430,11 +2631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2445,7 +2646,7 @@
     <col min="4" max="4" width="31.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="11" customWidth="1"/>
     <col min="6" max="12" width="27.5" style="11" customWidth="1"/>
-    <col min="13" max="13" width="36.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="11" customWidth="1"/>
     <col min="15" max="15" width="54.375" style="11" customWidth="1"/>
     <col min="16" max="16" width="35" style="11" customWidth="1"/>
@@ -2490,10 +2691,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -5228,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D78" s="50" t="s">
         <v>134</v>
@@ -5263,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D79" s="50" t="s">
         <v>135</v>
@@ -5485,7 +5686,7 @@
         <v>14</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5762,10 +5963,10 @@
         <v>404</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5789,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5800,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>37</v>
@@ -5837,10 +6038,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>37</v>
@@ -5865,6 +6066,47 @@
       </c>
       <c r="L95" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="75" customFormat="1">
+      <c r="A96" s="75">
+        <v>96</v>
+      </c>
+      <c r="B96" s="75">
+        <v>1</v>
+      </c>
+      <c r="C96" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="D96" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="E96" s="76" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" s="75">
+        <v>96</v>
+      </c>
+      <c r="G96" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="75">
+        <v>7</v>
+      </c>
+      <c r="I96" s="75">
+        <v>1615046400</v>
+      </c>
+      <c r="J96" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="K96" s="75">
+        <v>-1</v>
+      </c>
+      <c r="L96" s="75">
+        <v>1</v>
+      </c>
+      <c r="M96" s="76" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5876,11 +6118,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8113,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
@@ -8306,13 +8548,13 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="H94" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="H94" s="42" t="s">
-        <v>409</v>
-      </c>
       <c r="I94" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8331,14 +8573,14 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8358,8 +8600,32 @@
         <v>120</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>431</v>
-      </c>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="74">
+        <v>96</v>
+      </c>
+      <c r="B97" s="75">
+        <v>96</v>
+      </c>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77">
+        <v>96</v>
+      </c>
+      <c r="E97" s="77"/>
+      <c r="F97" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" s="77"/>
+      <c r="H97" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="I97" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="J97" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8372,8 +8638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9724,7 +9990,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9741,7 +10007,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9775,7 +10041,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9894,7 +10160,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9911,7 +10177,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D90" s="57">
         <v>0</v>
@@ -10105,7 +10371,7 @@
         <v>94</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D103" s="11">
         <v>0</v>
@@ -11306,11 +11572,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13245,7 +13511,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D106" s="41">
         <v>3000</v>
@@ -13393,7 +13659,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -13448,7 +13714,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D117" s="69">
         <v>1</v>
@@ -13484,7 +13750,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D119" s="69">
         <v>1</v>
@@ -13520,7 +13786,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D121" s="69">
         <v>1</v>
@@ -13556,7 +13822,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D123" s="69">
         <v>1</v>
@@ -13592,7 +13858,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D125" s="69">
         <v>1</v>
@@ -13611,7 +13877,7 @@
         <v>115</v>
       </c>
       <c r="C126" s="70" t="s">
-        <v>219</v>
+        <v>440</v>
       </c>
       <c r="D126" s="69">
         <v>50</v>
@@ -13628,7 +13894,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D127" s="69">
         <v>1</v>
@@ -13647,7 +13913,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D128" s="65">
         <v>50000</v>
@@ -13666,7 +13932,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D129" s="65">
         <v>100</v>
@@ -13685,7 +13951,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D130" s="65">
         <v>5</v>
@@ -13704,7 +13970,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D131" s="65">
         <v>200</v>
@@ -13723,7 +13989,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D132" s="65">
         <v>10</v>
@@ -13742,7 +14008,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D133" s="65">
         <v>100000</v>
@@ -13761,7 +14027,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D134" s="65">
         <v>20</v>
@@ -13780,7 +14046,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D135" s="65">
         <v>500000</v>
@@ -13799,7 +14065,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D136" s="14">
         <v>3</v>
@@ -13816,7 +14082,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D137" s="14">
         <v>1</v>
@@ -13833,12 +14099,63 @@
         <v>120</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D138" s="14">
         <v>1</v>
       </c>
       <c r="E138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4">
+        <v>121</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="81">
+        <v>100000</v>
+      </c>
+      <c r="E139" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4">
+        <v>122</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E140" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4">
+        <v>123</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="E141" s="74">
         <v>1</v>
       </c>
     </row>
@@ -13986,10 +14303,10 @@
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="82">
         <v>1</v>
       </c>
     </row>
@@ -13997,8 +14314,8 @@
       <c r="A3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -14048,10 +14365,10 @@
       <c r="A8" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="82" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14059,17 +14376,17 @@
       <c r="A9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="82">
         <v>1</v>
       </c>
     </row>
@@ -14077,8 +14394,8 @@
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -14183,10 +14500,10 @@
       <c r="A21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="83">
         <v>1</v>
       </c>
     </row>
@@ -14194,8 +14511,8 @@
       <c r="A22" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -47201,10 +47518,10 @@
       <c r="A45" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="82" t="s">
         <v>275</v>
       </c>
     </row>
@@ -47212,8 +47529,8 @@
       <c r="A46" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
